--- a/data/trans_camb/P16B17-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P16B17-Edad-trans_camb.xlsx
@@ -554,7 +554,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -564,7 +564,7 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
@@ -574,7 +574,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P16B17-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P16B17-Edad-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -999,22 +999,22 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1155,22 +1155,22 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1311,22 +1311,22 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1623,22 +1623,22 @@
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
